--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_end.xlsx
@@ -1196,7 +1196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Confessarius"]  We lack “effective measures” to retake control of that unit from W.
+    <t xml:space="preserve">[name="Confessarius"]  We lack 'effective measures' to retake control of that unit from W.
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’ve still got my own squad I can keep on “standby.”
+    <t xml:space="preserve">[name="Hoederer"]  I’ve still got my own squad I can keep on 'standby.'
 </t>
   </si>
   <si>
@@ -1540,11 +1540,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  You can do a lot as a “Messenger.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  “Keep following Talulah’s orders. Hoederer isn’t coming back yet.” Should be good?
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  You can do a lot as a 'Messenger.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  'Keep following Talulah’s orders. Hoederer isn’t coming back yet.' Should be good?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_06_end.xlsx
@@ -1136,7 +1136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Confessarius"]  You are all impressive warriors, and until your deaths, you are entitled to the rewards you’ve earned by virtue of the blood, sweat, and tears you have shed.
+    <t xml:space="preserve">[name="Confessarius"]  You are all impressive warriors, and until your deaths, you are entitled to the rewards you've earned by virtue of the blood, sweat, and tears you have shed.
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Confessarius"]  But His Majesty will not participate in such nonsense. We have mutually decided that Victoria will stand by and watch Reunion’s next move.
+    <t xml:space="preserve">[name="Confessarius"]  But His Majesty will not participate in such nonsense. We have mutually decided that Victoria will stand by and watch Reunion's next move.
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  We’re still going to use Reunion? I was sure His Majesty would have...
+    <t xml:space="preserve">[name="Hoederer"]  We're still going to use Reunion? I was sure His Majesty would have...
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Confessarius"]  What’s more, should your words just now be taken as a question of His Majesty’s intentions?
+    <t xml:space="preserve">[name="Confessarius"]  What's more, should your words just now be taken as a question of His Majesty's intentions?
 </t>
   </si>
   <si>
@@ -1268,11 +1268,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  Looks like it’s house arrest for both of us?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  It’s not like I never thought about it. And hey, it’s better than I was expecting...
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  Looks like it's house arrest for both of us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  It's not like I never thought about it. And hey, it's better than I was expecting...
 </t>
   </si>
   <si>
@@ -1280,27 +1280,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  Which part was naive? The part where you thought you’d die, or the part where you thought the Regent didn’t know?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Both. He’s been pulling the strings from the start.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Not that I’m surprised... he’s Theresis. We’ve all heard the stories about him and Theresa, the invincible forces of nature...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  But I guess in the course of the war, I forgot those stories... weren’t just stories.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  So how do we warn W? What’s going on with Reunion?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  We wasted so much time on the road. She might’ve already split with Talulah.
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  Which part was naive? The part where you thought you'd die, or the part where you thought the Regent didn't know?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Both. He's been pulling the strings from the start.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Not that I'm surprised... he's Theresis. We've all heard the stories about him and Theresa, the invincible forces of nature...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  But I guess in the course of the war, I forgot those stories... weren't just stories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  So how do we warn W? What's going on with Reunion?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  We wasted so much time on the road. She might've already split with Talulah.
 </t>
   </si>
   <si>
@@ -1308,11 +1308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  Wouldn’t that be a bit too quick?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  It fits with the way W works. If Talulah’s gonna destroy the Infected, W’ll destroy Talulah first.
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  Wouldn't that be a bit too quick?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  It fits with the way W works. If Talulah's gonna destroy the Infected, W'll destroy Talulah first.
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  She’s pretty upset over the death of a certain merc, after all.
+    <t xml:space="preserve">[name="Hoederer"]  She's pretty upset over the death of a certain merc, after all.
 </t>
   </si>
   <si>
@@ -1328,23 +1328,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  She’s out of room to hesitate any longer. Now she just needs to get into the right headspace to make a move.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  And that means we’re left waiting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  We’ve got ways to fool the Regent’s eyes. It’d be a crazy risky play, but...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  I’ve still got my own squad I can keep on 'standby.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  Victoria’s all over the place right now. They probably wouldn’t catch the code.
+    <t xml:space="preserve">[name="Hoederer"]  She's out of room to hesitate any longer. Now she just needs to get into the right headspace to make a move.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  And that means we're left waiting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  We've got ways to fool the Regent's eyes. It'd be a crazy risky play, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  I've still got my own squad I can keep on 'standby.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  Victoria's all over the place right now. They probably wouldn't catch the code.
 </t>
   </si>
   <si>
@@ -1356,7 +1356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  The battlefield ruins there haven’t been touched in a long time.
+    <t xml:space="preserve">[name="Hoederer"]  The battlefield ruins there haven't been touched in a long time.
 </t>
   </si>
   <si>
@@ -1392,7 +1392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  I figured you’d just lost your will to fight.
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  I figured you'd just lost your will to fight.
 </t>
   </si>
   <si>
@@ -1404,11 +1404,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Because I had no choice. It’s kind of liberating, in a way?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  W must’ve said something to you before you left Chernobog.
+    <t xml:space="preserve">[name="Hoederer"]  Because I had no choice. It's kind of liberating, in a way?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  W must've said something to you before you left Chernobog.
 </t>
   </si>
   <si>
@@ -1416,11 +1416,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  No. She’d be a lot less of a pain if she did though.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  You’re right that she came looking for me before I left the core city. She knew what we were going to do.
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  No. She'd be a lot less of a pain if she did though.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  You're right that she came looking for me before I left the core city. She knew what we were going to do.
 </t>
   </si>
   <si>
@@ -1452,7 +1452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  But that’s all in the past. At least for us it is.
+    <t xml:space="preserve">[name="W"]  But that's all in the past. At least for us it is.
 </t>
   </si>
   <si>
@@ -1464,7 +1464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  But we don’t need anybody to slap it on. No oversight. They write their own price in the blood of the enemies of Sarkaz.
+    <t xml:space="preserve">[name="W"]  But we don't need anybody to slap it on. No oversight. They write their own price in the blood of the enemies of Sarkaz.
 </t>
   </si>
   <si>
@@ -1492,11 +1492,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  You’re talking about doing that right in front of Theresis, in broad daylight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You make it sound so bad. As if you don’t have your own plans.
+    <t xml:space="preserve">[name="Hoederer"]  You're talking about doing that right in front of Theresis, in broad daylight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You make it sound so bad. As if you don't have your own plans.
 </t>
   </si>
   <si>
@@ -1508,15 +1508,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’d better do it, or we’ll have trouble.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  That’s a pretty good joke. The old hands at the Scar Market would laugh themselves into a coma.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  It certainly wouldn’t make the committee happy. They’d be out a lotta money, and a lotta wasted brainpower.
+    <t xml:space="preserve">[name="W"]  You'd better do it, or we'll have trouble.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  That's a pretty good joke. The old hands at the Scar Market would laugh themselves into a coma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  It certainly wouldn't make the committee happy. They'd be out a lotta money, and a lotta wasted brainpower.
 </t>
   </si>
   <si>
@@ -1528,15 +1528,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  So what are you gonna do now? It’s up to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Well... I can’t leave Londinium. Hell, I can’t even leave this mansion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  I think it’s up to you.
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  So what are you gonna do now? It's up to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Well... I can't leave Londinium. Hell, I can't even leave this mansion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  I think it's up to you.
 </t>
   </si>
   <si>
@@ -1544,11 +1544,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  'Keep following Talulah’s orders. Hoederer isn’t coming back yet.' Should be good?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  As long as that comms station still works, we’ll hear back. And they’ll get word to W.
+    <t xml:space="preserve">[name="Hoederer"]  'Keep following Talulah's orders. Hoederer isn't coming back yet.' Should be good?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  As long as that comms station still works, we'll hear back. And they'll get word to W.
 </t>
   </si>
   <si>
@@ -1560,7 +1560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Messenger"]  Don’t give me orders.
+    <t xml:space="preserve">[name="Sarkaz Messenger"]  Don't give me orders.
 </t>
   </si>
   <si>
@@ -1576,7 +1576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The ruins of Chernobog weren’t like those of Kazdel.
+    <t xml:space="preserve">The ruins of Chernobog weren't like those of Kazdel.
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Waifish Child"] N-no, don’t provoke her...
+    <t xml:space="preserve">[name="Waifish Child"] N-no, don't provoke her...
 </t>
   </si>
   <si>
@@ -1612,11 +1612,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  That’s an army sword you’re holding, isn’t it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Yes, it is. Sarkaz steel... You can’t even lift it. Why are you hauling that thing around?
+    <t xml:space="preserve">[name="W"]  That's an army sword you're holding, isn't it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Yes, it is. Sarkaz steel... You can't even lift it. Why are you hauling that thing around?
 </t>
   </si>
   <si>
@@ -1636,15 +1636,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Oh, you’re hurt.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You’re gonna get infected. This city got hit with a Catastrophe. It’s not safe here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Unyielding Child"] I won’t turn into a thing like you!
+    <t xml:space="preserve">[name="W"]  Oh, you're hurt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You're gonna get infected. This city got hit with a Catastrophe. It's not safe here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Unyielding Child"] I won't turn into a thing like you!
 </t>
   </si>
   <si>
